--- a/活頁簿1.xlsx
+++ b/活頁簿1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fossu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fossu\Desktop\ML_DSA_Syn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1A1714-B7E3-4718-A302-52F58A93417D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF689AC-DEE9-4BC4-9848-6B51C2BC2DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E0AA1E02-541B-4749-9FC8-9C06AE7C4676}"/>
+    <workbookView xWindow="-18120" yWindow="-9510" windowWidth="18240" windowHeight="28440" xr2:uid="{E0AA1E02-541B-4749-9FC8-9C06AE7C4676}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="NTT" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="97">
   <si>
     <t>stage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NTT(s1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,70 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SINGEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTT(s2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTT(t0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTT(y)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTT(A^*s1^)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTT(A^*y^)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTT(c)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTT(c^*s1^)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTT(c^*s2^)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTT(c^*t0^)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SINVER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTT(z)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTT(t1*2d)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTT(shit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>temp0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,10 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>temp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(ρ, ρ', K) ∈ 𝔹³² × 𝔹⁶⁴ × 𝔹³² ← H(ξ || IntegerToBytes(k, 1) || IntegerToBytes(ℓ, 1), 128)</t>
   </si>
   <si>
@@ -261,9 +188,6 @@
     <t>(s₁, s₂) ← ExpandS(ρ')</t>
   </si>
   <si>
-    <t>(t₁, t₀) ← Power2Round(t)</t>
-  </si>
-  <si>
     <t>pk ← pkEncode(ρ, t₁)</t>
   </si>
   <si>
@@ -293,18 +217,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,6 +235,149 @@
   <si>
     <t>t ←INTT(A^ * s1*) + s2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rho(256bit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rho_prime(512bit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kata(256bit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s1(pack)(64bit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2(pack)(64bit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp0(s1)(23(bit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp1(s2)(23(bit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A(23bit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp2(23bit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t(23bit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>₁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, t₀) ← Power2Round(t)</t>
+    </r>
+  </si>
+  <si>
+    <t>t1(64bit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t0(64bit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tr(64bit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignGen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(𝜌, 𝐾, 𝑡𝑟, 𝐬1, 𝐬2, 𝐭0) ← skDecode(𝑠𝑘)</t>
+  </si>
+  <si>
+    <t>𝐬1 ̂ ← NTT(𝐬1)</t>
+  </si>
+  <si>
+    <t>𝐬2 ̂ ← NTT(𝐬2)</t>
+  </si>
+  <si>
+    <t>𝐭0 ̂ ← NTT(𝐭0</t>
+  </si>
+  <si>
+    <t>𝐀 ← ExpandA(𝜌)</t>
+  </si>
+  <si>
+    <t>𝜇 ← H(BytesToBits(𝑡𝑟)||𝑀′ , 64)</t>
+  </si>
+  <si>
+    <t>𝜌″ ← H(𝐾||𝑟𝑛𝑑||𝜇, 64)</t>
+  </si>
+  <si>
+    <t>𝐲 ∈ 𝑅𝑞 ℓ ← ExpandMask(𝜌″, 𝜅)</t>
+  </si>
+  <si>
+    <t>𝐰 ← NTT−1(𝐀 ∘̂ NTT(𝐲))</t>
+  </si>
+  <si>
+    <t>𝐰1 ← HighBits(𝐰)</t>
+  </si>
+  <si>
+    <t>𝑐 ̃← H(𝜇||w1Encode(𝐰1), 𝜆/4)</t>
+  </si>
+  <si>
+    <t>𝑐 ∈ 𝑅𝑞 ← SampleInBall(𝑐)̃</t>
+  </si>
+  <si>
+    <t>𝑐 ̂← NTT(𝑐)</t>
+  </si>
+  <si>
+    <t>⟨⟨𝑐𝐬1⟩⟩ ← NTT−1(𝑐 ∘̂ 𝐬1 ̂)</t>
+  </si>
+  <si>
+    <t>⟨⟨𝑐𝐬2⟩⟩ ← NTT−1(𝑐 ∘̂ 𝐬2 ̂)</t>
+  </si>
+  <si>
+    <t>𝐳 ← 𝐲 + ⟨⟨𝑐𝐬1⟩⟩</t>
+  </si>
+  <si>
+    <t>𝐫0 ← LowBits(𝐰 − ⟨⟨𝑐𝐬2⟩⟩)</t>
+  </si>
+  <si>
+    <t>⟨⟨𝑐𝐭0⟩⟩ ← NTT−1(𝑐 ∘̂ 𝐭0 ̂)</t>
+  </si>
+  <si>
+    <t>𝐡 ← MakeHint(−⟨⟨𝑐𝐭0⟩⟩, 𝐰 − ⟨⟨𝑐𝐬2⟩⟩ + ⟨⟨𝑐𝐭0⟩⟩)</t>
+  </si>
+  <si>
+    <t>𝜎 ← sigEncode(𝑐, 𝐳̃ mod±𝑞, 𝐡)</t>
   </si>
 </sst>
 </file>
@@ -708,7 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DE8980-F2C5-4A1A-8E55-A1990D4F6BA9}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
@@ -951,293 +1010,292 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1746B82D-7E9A-4BA1-A3ED-018FE9571A50}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B0B7D6-A220-41A3-9F31-FE3B6D8B1AA5}">
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B0B7D6-A220-41A3-9F31-FE3B6D8B1AA5}">
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="73.5" customWidth="1"/>
-    <col min="2" max="7" width="19.375" customWidth="1"/>
+    <col min="2" max="14" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" t="s">
         <v>74</v>
       </c>
-      <c r="F2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>80</v>
       </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>81</v>
       </c>
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>82</v>
       </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>70</v>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
